--- a/Outputs/PtX_demand_DK.xlsx
+++ b/Outputs/PtX_demand_DK.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0004249492896250961</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.306336170096178e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001748509948835993</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0004249492896250961</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1.306336170096178e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001748509948835993</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,18 +583,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0003844825721781027</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001111623516295486</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3.373774600869086e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,24 +608,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0003844825721781027</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001111623516295486</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>3.373774600869086e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,17 +628,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.007470683708903277</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.937091197937183e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.1019544503354e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0062820907408898</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.039905455642576e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.004500659347109801</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -646,30 +658,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.007470683708903277</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.937091197937183e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7.1019544503354e-05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0062820907408898</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.039905455642576e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.004500659347109801</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.001572628624304701</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -678,7 +680,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.001572628624304701</v>
+        <v>0.001047081741485413</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -690,7 +692,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -699,19 +701,31 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.001047081741485413</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.003004192937968216</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.008006795350157922</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.937091197937183e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.10208508395241e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.00649067948178209</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.039905455642576e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004500659347109801</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -720,17 +734,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.002053604010160708</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.093547660215742e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0002577736165919</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -739,23 +759,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.002053604010160708</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.093547660215742e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0002577736165919</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -774,7 +788,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -783,17 +797,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>7.322806083117311e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>8.152913431792302e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -801,14 +819,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.001497759788412087</v>
+      </c>
       <c r="F16" t="n">
-        <v>7.322806083117311e-10</v>
+        <v>0.0001417368229084807</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>8.152913431792302e-11</v>
+        <v>5.615015649739315e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -816,7 +836,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -824,24 +844,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.001497759788412087</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0001417368229084807</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>5.615015649739315e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -850,17 +864,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.003109201685836332</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.000129387680729</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.000110267202807</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0041737399182243</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.122667160201211e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.005115832688583799</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -868,30 +894,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.003109201685836332</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.000129387680729</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.000110267202807</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0041737399182243</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.122667160201211e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.005115832688583799</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.001564790190102735</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -900,7 +916,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.001564790190102735</v>
+        <v>0.00407055340951407</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -912,7 +928,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -921,19 +937,31 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.00407055340951407</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.007133103388028891</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.005304543251186129</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.000129387680729</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0001103765575730216</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.004487663772842727</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.122667160201211e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.005115832688583799</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -942,17 +970,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0028429310518253</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.853475200557468e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0004117404118114</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -961,23 +995,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0028429310518253</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.853475200557468e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0004117404118114</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -996,7 +1024,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1005,17 +1033,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>5.159994887463009e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>2.181042364749701e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1023,14 +1055,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.003608512460127723</v>
+      </c>
       <c r="F26" t="n">
-        <v>5.159994887463009e-09</v>
+        <v>2.200879955645684e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>2.181042364749701e-09</v>
+        <v>1.599038756056599e-05</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1038,7 +1072,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1046,24 +1080,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.003608512460127723</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2.200879955645684e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>1.721647041242079e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.764648946044249e-12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.300664550069481e-12</v>
+      </c>
       <c r="I27" t="n">
-        <v>1.599038756056599e-05</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>6.85489413995898e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.193308022998501e-13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.671568424888381e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1073,28 +1113,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1.721647041242079e-11</v>
+        <v>0.000273505592033718</v>
       </c>
       <c r="G28" t="n">
-        <v>4.764648946044249e-12</v>
+        <v>0.0002311930686831</v>
       </c>
       <c r="H28" t="n">
-        <v>2.300664550069481e-12</v>
+        <v>0.0001742174690698</v>
       </c>
       <c r="I28" t="n">
-        <v>6.85489413995898e-11</v>
+        <v>0.0010779854908764</v>
       </c>
       <c r="J28" t="n">
-        <v>4.193308022998501e-13</v>
+        <v>7.874719523598319e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.671568424888381e-10</v>
+        <v>0.0072768487878193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1102,30 +1142,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.000273505592033718</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0002311930686831</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0001742174690698</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0010779854908764</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.874719523598319e-05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0072768487878193</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.001549435461082234</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1134,7 +1164,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001549435461082234</v>
+        <v>0.009801744138411114</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1146,7 +1176,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1155,14 +1185,26 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.009801744138411114</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.01495969205962107</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.003138450620626833</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0002311930734477489</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0001744028188905203</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.001505718539839672</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.8747195655314e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.007276849154976142</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_DK.xlsx
+++ b/Outputs/PtX_demand_DK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -609,17 +609,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.001635641213188201</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0001334526910548289</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,29 +632,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.007470683708903277</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.937091197937183e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7.1019544503354e-05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0062820907408898</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.039905455642576e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.004500659347109801</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -658,20 +650,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.001572628624304701</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.007470683708903277</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.937091197937183e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.003168171690874954</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0062820907408898</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.039905455642576e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.004500659347109801</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -679,20 +681,30 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.001047081741485413</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.07584242857359601</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0005589860579383</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0288833029545226</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0398321786500645</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0003050655832605</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0437396477109587</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -701,75 +713,73 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.003004192937968216</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.008006795350157922</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.937091197937183e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7.10208508395241e-05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.00649067948178209</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.039905455642576e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.004500659347109801</v>
-      </c>
+        <v>0.001572628624304701</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.002053604010160708</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.001047081741485413</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.093547660215742e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0002577736165919</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.003004192937968216</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08548486513694213</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0006383569699176719</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.03205147595173372</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.04645631082290141</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0003554646378169257</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0482403070580685</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -778,17 +788,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.002053604010160708</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.093547660215742e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0002577736165919</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -797,21 +813,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>7.322806083117311e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>8.152913431792302e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -819,24 +831,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.001497759788412087</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0001417368229084807</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>5.615015649739315e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -845,17 +851,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>7.322806083117311e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>8.152913431792302e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -863,30 +873,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.001497759788412087</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.003109201685836332</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.000129387680729</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.000110267202807</v>
-      </c>
+        <v>0.0001417368229084807</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0041737399182243</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.122667160201211e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.005115832688583799</v>
-      </c>
+        <v>5.615015649739315e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -894,20 +898,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.001564790190102735</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0008703050421561751</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0001420473188329681</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -915,9 +921,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.00407055340951407</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -928,7 +932,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -936,20 +940,18 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.007133103388028891</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.005304543251186129</v>
+        <v>0.003109201685836332</v>
       </c>
       <c r="G21" t="n">
         <v>0.000129387680729</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001103765575730216</v>
+        <v>0.0038806073302648</v>
       </c>
       <c r="I21" t="n">
-        <v>0.004487663772842727</v>
+        <v>0.0041737399182243</v>
       </c>
       <c r="J21" t="n">
         <v>6.122667160201211e-05</v>
@@ -961,40 +963,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0028429310518253</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.020121667103184</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0006009410903166</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.853475200557468e-07</v>
+        <v>0.027242133265133</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004117404118114</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0179156096703749</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.000270718412435</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0423519848862636</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.001564790190102735</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1005,15 +1015,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.00407055340951407</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1024,30 +1036,40 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.007133103388028891</v>
+      </c>
       <c r="F25" t="n">
-        <v>5.159994887463009e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.02629651539652631</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0007303287710456</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03112284995016382</v>
+      </c>
       <c r="I25" t="n">
-        <v>2.181042364749701e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.0225453207620506</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0003319450840370121</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0474678175748474</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1055,16 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.003608512460127723</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>2.200879955645684e-05</v>
+        <v>0.0028429310518253</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.853475200557468e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>1.599038756056599e-05</v>
+        <v>0.0004117404118114</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1072,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1081,29 +1103,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>1.721647041242079e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4.764648946044249e-12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.300664550069481e-12</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.85489413995898e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.193308022998501e-13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.671568424888381e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1112,29 +1122,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.000273505592033718</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0002311930686831</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0001742174690698</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0010779854908764</v>
-      </c>
-      <c r="J28" t="n">
-        <v>7.874719523598319e-05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0072768487878193</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1142,20 +1140,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.001549435461082234</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>5.159994887463009e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>2.181042364749701e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1164,19 +1164,23 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.009801744138411114</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.003608512460127723</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.200879955645684e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.599038756056599e-05</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1184,26 +1188,184 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>4.522630829141753e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>5.229533163129361e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1.721647041242079e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.764648946044249e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.475616247131327e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.85489413995898e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.193308022998501e-13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.671568424888381e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.000273505592033718</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0002311930686831</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0051125507058801</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0010779854908764</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7.874719523598319e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0072768487878193</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0010985726600198</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0005420234133979</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0246011132586586</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0031809784935991</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0002330211164886</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0393920586321853</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.001549435461082234</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.009801744138411114</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>0.01495969205962107</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.003138450620626833</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0002311930734477489</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.0001744028188905203</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.001505718539839672</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.8747195655314e-05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.007276849154976142</v>
+      <c r="F37" t="n">
+        <v>0.00428224958893805</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0007732164868456489</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02971384945962038</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.004738992365070066</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000311768312143914</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.04666890778716144</v>
       </c>
     </row>
   </sheetData>
